--- a/06-Infy-Training/04-MEAN/04-NodeJS/NodeJS.xlsx
+++ b/06-Infy-Training/04-MEAN/04-NodeJS/NodeJS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balaji Kannigesvaran\Documents\GitHub\LEARNING\06. INFY TRAINING\04_MEAN\04_NodeJS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balaji Kannigesvaran\Documents\GitHub\LEARNING\06-Infy-Training\04-MEAN\04-NodeJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C4D191-925F-4AD7-B193-21473A7C5F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B05F97D-74CB-4CA7-B0FC-33AFEB97B0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>I</t>
   </si>
@@ -158,17 +158,149 @@
     <t>But As we are gonne take JS out of the browser</t>
   </si>
   <si>
-    <t>here we gonna use built-terminal of VS code as the command line</t>
-  </si>
-  <si>
     <t>To open a terminal</t>
+  </si>
+  <si>
+    <t>here we gonna use built-in terminal of VS code as the command line</t>
+  </si>
+  <si>
+    <t>either got to terminal in menubar and click on New terminal</t>
+  </si>
+  <si>
+    <t>or use ctrl+shift+~ as the shortcut for opening new terminal</t>
+  </si>
+  <si>
+    <t>~ --&gt; will be there in between esc and tab keys</t>
+  </si>
+  <si>
+    <t>We can use another application for terminal</t>
+  </si>
+  <si>
+    <t>But as we are gonna code in VS code</t>
+  </si>
+  <si>
+    <t>using the terminal there will be much comfortable</t>
+  </si>
+  <si>
+    <t>To start writing node code in the terminal</t>
+  </si>
+  <si>
+    <t>Write node and press enter in the terminal</t>
+  </si>
+  <si>
+    <t>This will open the Node REPL,</t>
+  </si>
+  <si>
+    <t>which stands for Read-Evaluate-Print-Loop</t>
+  </si>
+  <si>
+    <t>Now, we can write a JS code here</t>
+  </si>
+  <si>
+    <t>just like a normal terminal</t>
+  </si>
+  <si>
+    <t>We can assign a value to the constant</t>
+  </si>
+  <si>
+    <t>and call it back</t>
+  </si>
+  <si>
+    <t>We can solve any expressions</t>
+  </si>
+  <si>
+    <t>_ refers to previous answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To close this repl </t>
+  </si>
+  <si>
+    <t>use .exit</t>
+  </si>
+  <si>
+    <t>We can also use the shortcut to exit</t>
+  </si>
+  <si>
+    <t>ctrl+d</t>
+  </si>
+  <si>
+    <t>Go into node and hit tab (sometimes we have to hit it twice</t>
+  </si>
+  <si>
+    <t>It will show all the global variables, that are available in node</t>
+  </si>
+  <si>
+    <t>These are node modules</t>
+  </si>
+  <si>
+    <t>that we will take about later in this section</t>
+  </si>
+  <si>
+    <t>Some of them are</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Https</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>etc.,</t>
+  </si>
+  <si>
+    <t>Instead pressing tab manually</t>
+  </si>
+  <si>
+    <t>We can use it after one of these constructors followed by dot(.)</t>
+  </si>
+  <si>
+    <t>this gives all the methods or properties that are available in that constructor</t>
+  </si>
+  <si>
+    <t>Typing String. And pressing tab(sometimes twice)</t>
+  </si>
+  <si>
+    <t>Using Modules</t>
+  </si>
+  <si>
+    <t>Create a JS file</t>
+  </si>
+  <si>
+    <t>Write code inside the file</t>
+  </si>
+  <si>
+    <t>Execute the file by using the terminal</t>
+  </si>
+  <si>
+    <t>Use the following command for that</t>
+  </si>
+  <si>
+    <t>node &lt;file name&gt;</t>
+  </si>
+  <si>
+    <t>We use the node command without file name for REPL</t>
+  </si>
+  <si>
+    <t>And we use it with file name for executing a JS file</t>
+  </si>
+  <si>
+    <t>Before this, we have created a HTML file and linked it with the JS file</t>
+  </si>
+  <si>
+    <t>Then we open the HTML file in browser to run the JS file</t>
+  </si>
+  <si>
+    <t>But now, all these things need not be done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,8 +324,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +349,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -316,6 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,6 +478,395 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>208280</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CCAFAD2-4B08-A303-F9F7-B1D12D15B44C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="955040" y="8331200"/>
+          <a:ext cx="4765040" cy="2680335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>172720</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C52221A7-C77B-4DF6-01DA-62DCBB8FAFA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2423160" y="9789160"/>
+          <a:ext cx="3261360" cy="985520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>187960</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECBD232C-8A99-950C-87B1-9D1998ED79A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1229360" y="10073640"/>
+          <a:ext cx="1300480" cy="421640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Terminal --&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>55880</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>35560</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C49E4C15-548D-CE05-8916-28796F8C8473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="32549" t="55773" r="1830" b="15759"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="934720" y="11602721"/>
+          <a:ext cx="5100320" cy="1244600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>35561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EC6D16-97AE-88F1-C1EB-44A98DD9E445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="33137" t="29862" b="9949"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="924560" y="13771881"/>
+          <a:ext cx="5196840" cy="2631440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>35561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>96521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4065A3F8-A681-C53F-BA42-352C7C8A0DF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="33006" t="11387" b="7741"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="919480" y="17063721"/>
+          <a:ext cx="5207000" cy="3535680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>71120</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>40641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B8AC895-31AD-1B7F-F4D5-D4E0493B0339}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="32680" t="62629" r="19608" b="13783"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1193800" y="21889721"/>
+          <a:ext cx="3708400" cy="1031240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -923,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A406F1-0898-434A-BE15-31C2DD10EF43}">
-  <dimension ref="B1:AL66"/>
+  <dimension ref="B1:AL359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1266,27 +1802,36 @@
     <row r="37" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AL37" s="5"/>
     </row>
     <row r="38" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL38" s="5"/>
     </row>
     <row r="39" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
       <c r="AL39" s="5"/>
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
       <c r="AL40" s="5"/>
     </row>
     <row r="41" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
+      <c r="D41" t="s">
+        <v>42</v>
+      </c>
       <c r="AL41" s="5"/>
     </row>
     <row r="42" spans="2:38" x14ac:dyDescent="0.3">
@@ -1295,14 +1840,23 @@
     </row>
     <row r="43" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
       <c r="AL43" s="5"/>
     </row>
     <row r="44" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
       <c r="AL44" s="5"/>
     </row>
     <row r="45" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B45" s="4"/>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
       <c r="AL45" s="5"/>
     </row>
     <row r="46" spans="2:38" x14ac:dyDescent="0.3">
@@ -1371,10 +1925,16 @@
     </row>
     <row r="62" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B62" s="4"/>
+      <c r="C62" t="s">
+        <v>46</v>
+      </c>
       <c r="AL62" s="5"/>
     </row>
     <row r="63" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
+      <c r="D63" t="s">
+        <v>47</v>
+      </c>
       <c r="AL63" s="5"/>
     </row>
     <row r="64" spans="2:38" x14ac:dyDescent="0.3">
@@ -1385,48 +1945,1367 @@
       <c r="B65" s="4"/>
       <c r="AL65" s="5"/>
     </row>
-    <row r="66" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="6"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
-      <c r="W66" s="7"/>
-      <c r="X66" s="7"/>
-      <c r="Y66" s="7"/>
-      <c r="Z66" s="7"/>
-      <c r="AA66" s="7"/>
-      <c r="AB66" s="7"/>
-      <c r="AC66" s="7"/>
-      <c r="AD66" s="7"/>
-      <c r="AE66" s="7"/>
-      <c r="AF66" s="7"/>
-      <c r="AG66" s="7"/>
-      <c r="AH66" s="7"/>
-      <c r="AI66" s="7"/>
-      <c r="AJ66" s="7"/>
-      <c r="AK66" s="7"/>
-      <c r="AL66" s="8"/>
+    <row r="66" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B66" s="4"/>
+      <c r="AL66" s="5"/>
+    </row>
+    <row r="67" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B67" s="4"/>
+      <c r="AL67" s="5"/>
+    </row>
+    <row r="68" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B68" s="4"/>
+      <c r="AL68" s="5"/>
+    </row>
+    <row r="69" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B69" s="4"/>
+      <c r="AL69" s="5"/>
+    </row>
+    <row r="70" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B70" s="4"/>
+      <c r="AL70" s="5"/>
+    </row>
+    <row r="71" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B71" s="4"/>
+      <c r="AL71" s="5"/>
+    </row>
+    <row r="72" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B72" s="4"/>
+      <c r="D72" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL72" s="5"/>
+    </row>
+    <row r="73" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B73" s="4"/>
+      <c r="E73" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL73" s="5"/>
+    </row>
+    <row r="74" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B74" s="4"/>
+      <c r="D74" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL74" s="5"/>
+    </row>
+    <row r="75" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B75" s="4"/>
+      <c r="E75" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL75" s="5"/>
+    </row>
+    <row r="76" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B76" s="4"/>
+      <c r="AL76" s="5"/>
+    </row>
+    <row r="77" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B77" s="4"/>
+      <c r="AA77" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL77" s="5"/>
+    </row>
+    <row r="78" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B78" s="4"/>
+      <c r="AB78" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL78" s="5"/>
+    </row>
+    <row r="79" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B79" s="4"/>
+      <c r="AA79" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL79" s="5"/>
+    </row>
+    <row r="80" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B80" s="4"/>
+      <c r="AA80" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL80" s="5"/>
+    </row>
+    <row r="81" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B81" s="4"/>
+      <c r="AL81" s="5"/>
+    </row>
+    <row r="82" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B82" s="4"/>
+      <c r="AA82" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL82" s="5"/>
+    </row>
+    <row r="83" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B83" s="4"/>
+      <c r="AB83" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL83" s="5"/>
+    </row>
+    <row r="84" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B84" s="4"/>
+      <c r="AL84" s="5"/>
+    </row>
+    <row r="85" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B85" s="4"/>
+      <c r="AA85" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL85" s="5"/>
+    </row>
+    <row r="86" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B86" s="4"/>
+      <c r="AB86" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL86" s="5"/>
+    </row>
+    <row r="87" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B87" s="4"/>
+      <c r="AL87" s="5"/>
+    </row>
+    <row r="88" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B88" s="4"/>
+      <c r="AL88" s="5"/>
+    </row>
+    <row r="89" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B89" s="4"/>
+      <c r="AL89" s="5"/>
+    </row>
+    <row r="90" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B90" s="4"/>
+      <c r="AL90" s="5"/>
+    </row>
+    <row r="91" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B91" s="4"/>
+      <c r="AL91" s="5"/>
+    </row>
+    <row r="92" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B92" s="4"/>
+      <c r="D92" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL92" s="5"/>
+    </row>
+    <row r="93" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B93" s="4"/>
+      <c r="E93" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL93" s="5"/>
+    </row>
+    <row r="94" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B94" s="4"/>
+      <c r="AL94" s="5"/>
+    </row>
+    <row r="95" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B95" s="4"/>
+      <c r="AA95" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL95" s="5"/>
+    </row>
+    <row r="96" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B96" s="4"/>
+      <c r="AB96" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL96" s="5"/>
+    </row>
+    <row r="97" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B97" s="4"/>
+      <c r="AA97" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL97" s="5"/>
+    </row>
+    <row r="98" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B98" s="4"/>
+      <c r="AB98" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL98" s="5"/>
+    </row>
+    <row r="99" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B99" s="4"/>
+      <c r="AB99" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL99" s="5"/>
+    </row>
+    <row r="100" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B100" s="4"/>
+      <c r="AB100" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL100" s="5"/>
+    </row>
+    <row r="101" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B101" s="4"/>
+      <c r="AB101" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL101" s="5"/>
+    </row>
+    <row r="102" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B102" s="4"/>
+      <c r="AL102" s="5"/>
+    </row>
+    <row r="103" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B103" s="4"/>
+      <c r="AL103" s="5"/>
+    </row>
+    <row r="104" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B104" s="4"/>
+      <c r="AL104" s="5"/>
+    </row>
+    <row r="105" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B105" s="4"/>
+      <c r="AL105" s="5"/>
+    </row>
+    <row r="106" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B106" s="4"/>
+      <c r="AL106" s="5"/>
+    </row>
+    <row r="107" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B107" s="4"/>
+      <c r="AL107" s="5"/>
+    </row>
+    <row r="108" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B108" s="4"/>
+      <c r="AL108" s="5"/>
+    </row>
+    <row r="109" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B109" s="4"/>
+      <c r="AL109" s="5"/>
+    </row>
+    <row r="110" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B110" s="4"/>
+      <c r="AL110" s="5"/>
+    </row>
+    <row r="111" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B111" s="4"/>
+      <c r="AL111" s="5"/>
+    </row>
+    <row r="112" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B112" s="4"/>
+      <c r="AL112" s="5"/>
+    </row>
+    <row r="113" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B113" s="4"/>
+      <c r="AL113" s="5"/>
+    </row>
+    <row r="114" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B114" s="4"/>
+      <c r="AL114" s="5"/>
+    </row>
+    <row r="115" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B115" s="4"/>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL115" s="5"/>
+    </row>
+    <row r="116" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B116" s="4"/>
+      <c r="E116" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL116" s="5"/>
+    </row>
+    <row r="117" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B117" s="4"/>
+      <c r="F117" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL117" s="5"/>
+    </row>
+    <row r="118" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B118" s="4"/>
+      <c r="AL118" s="5"/>
+    </row>
+    <row r="119" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B119" s="4"/>
+      <c r="E119" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL119" s="5"/>
+    </row>
+    <row r="120" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B120" s="4"/>
+      <c r="AL120" s="5"/>
+    </row>
+    <row r="121" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B121" s="4"/>
+      <c r="AL121" s="5"/>
+    </row>
+    <row r="122" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B122" s="4"/>
+      <c r="AL122" s="5"/>
+    </row>
+    <row r="123" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B123" s="4"/>
+      <c r="AL123" s="5"/>
+    </row>
+    <row r="124" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B124" s="4"/>
+      <c r="AL124" s="5"/>
+    </row>
+    <row r="125" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B125" s="4"/>
+      <c r="AL125" s="5"/>
+    </row>
+    <row r="126" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B126" s="4"/>
+      <c r="AL126" s="5"/>
+    </row>
+    <row r="127" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="4"/>
+      <c r="AL127" s="5"/>
+    </row>
+    <row r="128" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B128" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
+      <c r="U128" s="2"/>
+      <c r="V128" s="2"/>
+      <c r="W128" s="2"/>
+      <c r="X128" s="2"/>
+      <c r="Y128" s="2"/>
+      <c r="Z128" s="2"/>
+      <c r="AA128" s="2"/>
+      <c r="AB128" s="2"/>
+      <c r="AC128" s="2"/>
+      <c r="AD128" s="2"/>
+      <c r="AE128" s="2"/>
+      <c r="AF128" s="2"/>
+      <c r="AG128" s="2"/>
+      <c r="AH128" s="2"/>
+      <c r="AI128" s="2"/>
+      <c r="AJ128" s="2"/>
+      <c r="AK128" s="2"/>
+      <c r="AL128" s="3"/>
+    </row>
+    <row r="129" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B129" s="4"/>
+      <c r="C129" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL129" s="5"/>
+    </row>
+    <row r="130" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B130" s="4"/>
+      <c r="C130" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL130" s="5"/>
+    </row>
+    <row r="131" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B131" s="4"/>
+      <c r="C131" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL131" s="5"/>
+    </row>
+    <row r="132" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B132" s="4"/>
+      <c r="D132" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL132" s="5"/>
+    </row>
+    <row r="133" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B133" s="4"/>
+      <c r="D133" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="AL133" s="5"/>
+    </row>
+    <row r="134" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B134" s="4"/>
+      <c r="D134" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL134" s="5"/>
+    </row>
+    <row r="135" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B135" s="4"/>
+      <c r="D135" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL135" s="5"/>
+    </row>
+    <row r="136" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B136" s="4"/>
+      <c r="D136" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL136" s="5"/>
+    </row>
+    <row r="137" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B137" s="4"/>
+      <c r="E137" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL137" s="5"/>
+    </row>
+    <row r="138" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B138" s="4"/>
+      <c r="E138" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL138" s="5"/>
+    </row>
+    <row r="139" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B139" s="4"/>
+      <c r="AL139" s="5"/>
+    </row>
+    <row r="140" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B140" s="4"/>
+      <c r="AL140" s="5"/>
+    </row>
+    <row r="141" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B141" s="4"/>
+      <c r="AL141" s="5"/>
+    </row>
+    <row r="142" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B142" s="4"/>
+      <c r="AL142" s="5"/>
+    </row>
+    <row r="143" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B143" s="4"/>
+      <c r="AL143" s="5"/>
+    </row>
+    <row r="144" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B144" s="4"/>
+      <c r="AL144" s="5"/>
+    </row>
+    <row r="145" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B145" s="4"/>
+      <c r="AL145" s="5"/>
+    </row>
+    <row r="146" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B146" s="4"/>
+      <c r="AL146" s="5"/>
+    </row>
+    <row r="147" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B147" s="4"/>
+      <c r="AL147" s="5"/>
+    </row>
+    <row r="148" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B148" s="4"/>
+      <c r="AL148" s="5"/>
+    </row>
+    <row r="149" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B149" s="4"/>
+      <c r="AL149" s="5"/>
+    </row>
+    <row r="150" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B150" s="4"/>
+      <c r="AL150" s="5"/>
+    </row>
+    <row r="151" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B151" s="4"/>
+      <c r="AL151" s="5"/>
+    </row>
+    <row r="152" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B152" s="4"/>
+      <c r="AL152" s="5"/>
+    </row>
+    <row r="153" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B153" s="4"/>
+      <c r="AL153" s="5"/>
+    </row>
+    <row r="154" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B154" s="4"/>
+      <c r="AL154" s="5"/>
+    </row>
+    <row r="155" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B155" s="4"/>
+      <c r="AL155" s="5"/>
+    </row>
+    <row r="156" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B156" s="4"/>
+      <c r="AL156" s="5"/>
+    </row>
+    <row r="157" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B157" s="4"/>
+      <c r="AL157" s="5"/>
+    </row>
+    <row r="158" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B158" s="4"/>
+      <c r="AL158" s="5"/>
+    </row>
+    <row r="159" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B159" s="4"/>
+      <c r="AL159" s="5"/>
+    </row>
+    <row r="160" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B160" s="4"/>
+      <c r="AL160" s="5"/>
+    </row>
+    <row r="161" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B161" s="4"/>
+      <c r="AL161" s="5"/>
+    </row>
+    <row r="162" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B162" s="4"/>
+      <c r="AL162" s="5"/>
+    </row>
+    <row r="163" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B163" s="4"/>
+      <c r="AL163" s="5"/>
+    </row>
+    <row r="164" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B164" s="4"/>
+      <c r="AL164" s="5"/>
+    </row>
+    <row r="165" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B165" s="4"/>
+      <c r="AL165" s="5"/>
+    </row>
+    <row r="166" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B166" s="4"/>
+      <c r="AL166" s="5"/>
+    </row>
+    <row r="167" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B167" s="4"/>
+      <c r="AL167" s="5"/>
+    </row>
+    <row r="168" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B168" s="4"/>
+      <c r="AL168" s="5"/>
+    </row>
+    <row r="169" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B169" s="4"/>
+      <c r="AL169" s="5"/>
+    </row>
+    <row r="170" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B170" s="4"/>
+      <c r="AL170" s="5"/>
+    </row>
+    <row r="171" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B171" s="4"/>
+      <c r="AL171" s="5"/>
+    </row>
+    <row r="172" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B172" s="4"/>
+      <c r="AL172" s="5"/>
+    </row>
+    <row r="173" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B173" s="4"/>
+      <c r="AL173" s="5"/>
+    </row>
+    <row r="174" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B174" s="4"/>
+      <c r="AL174" s="5"/>
+    </row>
+    <row r="175" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B175" s="4"/>
+      <c r="AL175" s="5"/>
+    </row>
+    <row r="176" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B176" s="4"/>
+      <c r="AL176" s="5"/>
+    </row>
+    <row r="177" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B177" s="4"/>
+      <c r="AL177" s="5"/>
+    </row>
+    <row r="178" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B178" s="4"/>
+      <c r="AL178" s="5"/>
+    </row>
+    <row r="179" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B179" s="4"/>
+      <c r="AL179" s="5"/>
+    </row>
+    <row r="180" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B180" s="4"/>
+      <c r="AL180" s="5"/>
+    </row>
+    <row r="181" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B181" s="4"/>
+      <c r="AL181" s="5"/>
+    </row>
+    <row r="182" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B182" s="4"/>
+      <c r="AL182" s="5"/>
+    </row>
+    <row r="183" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B183" s="4"/>
+      <c r="AL183" s="5"/>
+    </row>
+    <row r="184" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B184" s="4"/>
+      <c r="AL184" s="5"/>
+    </row>
+    <row r="185" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B185" s="4"/>
+      <c r="AL185" s="5"/>
+    </row>
+    <row r="186" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B186" s="4"/>
+      <c r="AL186" s="5"/>
+    </row>
+    <row r="187" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B187" s="4"/>
+      <c r="AL187" s="5"/>
+    </row>
+    <row r="188" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B188" s="4"/>
+      <c r="AL188" s="5"/>
+    </row>
+    <row r="189" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B189" s="4"/>
+      <c r="AL189" s="5"/>
+    </row>
+    <row r="190" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B190" s="4"/>
+      <c r="AL190" s="5"/>
+    </row>
+    <row r="191" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B191" s="4"/>
+      <c r="AL191" s="5"/>
+    </row>
+    <row r="192" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B192" s="4"/>
+      <c r="AL192" s="5"/>
+    </row>
+    <row r="193" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B193" s="4"/>
+      <c r="AL193" s="5"/>
+    </row>
+    <row r="194" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B194" s="4"/>
+      <c r="AL194" s="5"/>
+    </row>
+    <row r="195" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B195" s="4"/>
+      <c r="AL195" s="5"/>
+    </row>
+    <row r="196" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B196" s="4"/>
+      <c r="AL196" s="5"/>
+    </row>
+    <row r="197" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B197" s="4"/>
+      <c r="AL197" s="5"/>
+    </row>
+    <row r="198" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B198" s="4"/>
+      <c r="AL198" s="5"/>
+    </row>
+    <row r="199" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B199" s="4"/>
+      <c r="AL199" s="5"/>
+    </row>
+    <row r="200" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B200" s="4"/>
+      <c r="AL200" s="5"/>
+    </row>
+    <row r="201" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B201" s="4"/>
+      <c r="AL201" s="5"/>
+    </row>
+    <row r="202" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B202" s="4"/>
+      <c r="AL202" s="5"/>
+    </row>
+    <row r="203" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B203" s="4"/>
+      <c r="AL203" s="5"/>
+    </row>
+    <row r="204" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B204" s="4"/>
+      <c r="AL204" s="5"/>
+    </row>
+    <row r="205" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B205" s="4"/>
+      <c r="AL205" s="5"/>
+    </row>
+    <row r="206" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B206" s="4"/>
+      <c r="AL206" s="5"/>
+    </row>
+    <row r="207" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B207" s="4"/>
+      <c r="AL207" s="5"/>
+    </row>
+    <row r="208" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B208" s="4"/>
+      <c r="AL208" s="5"/>
+    </row>
+    <row r="209" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B209" s="4"/>
+      <c r="AL209" s="5"/>
+    </row>
+    <row r="210" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B210" s="4"/>
+      <c r="AL210" s="5"/>
+    </row>
+    <row r="211" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B211" s="4"/>
+      <c r="AL211" s="5"/>
+    </row>
+    <row r="212" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B212" s="4"/>
+      <c r="AL212" s="5"/>
+    </row>
+    <row r="213" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B213" s="4"/>
+      <c r="AL213" s="5"/>
+    </row>
+    <row r="214" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B214" s="4"/>
+      <c r="AL214" s="5"/>
+    </row>
+    <row r="215" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B215" s="4"/>
+      <c r="AL215" s="5"/>
+    </row>
+    <row r="216" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B216" s="4"/>
+      <c r="AL216" s="5"/>
+    </row>
+    <row r="217" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B217" s="4"/>
+      <c r="AL217" s="5"/>
+    </row>
+    <row r="218" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B218" s="4"/>
+      <c r="AL218" s="5"/>
+    </row>
+    <row r="219" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B219" s="4"/>
+      <c r="AL219" s="5"/>
+    </row>
+    <row r="220" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B220" s="4"/>
+      <c r="AL220" s="5"/>
+    </row>
+    <row r="221" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B221" s="4"/>
+      <c r="AL221" s="5"/>
+    </row>
+    <row r="222" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B222" s="4"/>
+      <c r="AL222" s="5"/>
+    </row>
+    <row r="223" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B223" s="4"/>
+      <c r="AL223" s="5"/>
+    </row>
+    <row r="224" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B224" s="4"/>
+      <c r="AL224" s="5"/>
+    </row>
+    <row r="225" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B225" s="4"/>
+      <c r="AL225" s="5"/>
+    </row>
+    <row r="226" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B226" s="4"/>
+      <c r="AL226" s="5"/>
+    </row>
+    <row r="227" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B227" s="4"/>
+      <c r="AL227" s="5"/>
+    </row>
+    <row r="228" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B228" s="4"/>
+      <c r="AL228" s="5"/>
+    </row>
+    <row r="229" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B229" s="4"/>
+      <c r="AL229" s="5"/>
+    </row>
+    <row r="230" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B230" s="4"/>
+      <c r="AL230" s="5"/>
+    </row>
+    <row r="231" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B231" s="4"/>
+      <c r="AL231" s="5"/>
+    </row>
+    <row r="232" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B232" s="4"/>
+      <c r="AL232" s="5"/>
+    </row>
+    <row r="233" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B233" s="4"/>
+      <c r="AL233" s="5"/>
+    </row>
+    <row r="234" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B234" s="4"/>
+      <c r="AL234" s="5"/>
+    </row>
+    <row r="235" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B235" s="4"/>
+      <c r="AL235" s="5"/>
+    </row>
+    <row r="236" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B236" s="4"/>
+      <c r="AL236" s="5"/>
+    </row>
+    <row r="237" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B237" s="4"/>
+      <c r="AL237" s="5"/>
+    </row>
+    <row r="238" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B238" s="4"/>
+      <c r="AL238" s="5"/>
+    </row>
+    <row r="239" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B239" s="4"/>
+      <c r="AL239" s="5"/>
+    </row>
+    <row r="240" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B240" s="4"/>
+      <c r="AL240" s="5"/>
+    </row>
+    <row r="241" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B241" s="4"/>
+      <c r="AL241" s="5"/>
+    </row>
+    <row r="242" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B242" s="4"/>
+      <c r="AL242" s="5"/>
+    </row>
+    <row r="243" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B243" s="4"/>
+      <c r="AL243" s="5"/>
+    </row>
+    <row r="244" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B244" s="4"/>
+      <c r="AL244" s="5"/>
+    </row>
+    <row r="245" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B245" s="4"/>
+      <c r="AL245" s="5"/>
+    </row>
+    <row r="246" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B246" s="4"/>
+      <c r="AL246" s="5"/>
+    </row>
+    <row r="247" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B247" s="4"/>
+      <c r="AL247" s="5"/>
+    </row>
+    <row r="248" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B248" s="4"/>
+      <c r="AL248" s="5"/>
+    </row>
+    <row r="249" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B249" s="4"/>
+      <c r="AL249" s="5"/>
+    </row>
+    <row r="250" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B250" s="4"/>
+      <c r="AL250" s="5"/>
+    </row>
+    <row r="251" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B251" s="4"/>
+      <c r="AL251" s="5"/>
+    </row>
+    <row r="252" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B252" s="4"/>
+      <c r="AL252" s="5"/>
+    </row>
+    <row r="253" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B253" s="4"/>
+      <c r="AL253" s="5"/>
+    </row>
+    <row r="254" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B254" s="4"/>
+      <c r="AL254" s="5"/>
+    </row>
+    <row r="255" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B255" s="4"/>
+      <c r="AL255" s="5"/>
+    </row>
+    <row r="256" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B256" s="4"/>
+      <c r="AL256" s="5"/>
+    </row>
+    <row r="257" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B257" s="4"/>
+      <c r="AL257" s="5"/>
+    </row>
+    <row r="258" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B258" s="4"/>
+      <c r="AL258" s="5"/>
+    </row>
+    <row r="259" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B259" s="4"/>
+      <c r="AL259" s="5"/>
+    </row>
+    <row r="260" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B260" s="4"/>
+      <c r="AL260" s="5"/>
+    </row>
+    <row r="261" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B261" s="4"/>
+      <c r="AL261" s="5"/>
+    </row>
+    <row r="262" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B262" s="4"/>
+      <c r="AL262" s="5"/>
+    </row>
+    <row r="263" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B263" s="4"/>
+      <c r="AL263" s="5"/>
+    </row>
+    <row r="264" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B264" s="4"/>
+      <c r="AL264" s="5"/>
+    </row>
+    <row r="265" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B265" s="4"/>
+      <c r="AL265" s="5"/>
+    </row>
+    <row r="266" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B266" s="4"/>
+      <c r="AL266" s="5"/>
+    </row>
+    <row r="267" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B267" s="4"/>
+      <c r="AL267" s="5"/>
+    </row>
+    <row r="268" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B268" s="4"/>
+      <c r="AL268" s="5"/>
+    </row>
+    <row r="269" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B269" s="4"/>
+      <c r="AL269" s="5"/>
+    </row>
+    <row r="270" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B270" s="4"/>
+      <c r="AL270" s="5"/>
+    </row>
+    <row r="271" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B271" s="4"/>
+      <c r="AL271" s="5"/>
+    </row>
+    <row r="272" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B272" s="4"/>
+      <c r="AL272" s="5"/>
+    </row>
+    <row r="273" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B273" s="4"/>
+      <c r="AL273" s="5"/>
+    </row>
+    <row r="274" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B274" s="4"/>
+      <c r="AL274" s="5"/>
+    </row>
+    <row r="275" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B275" s="4"/>
+      <c r="AL275" s="5"/>
+    </row>
+    <row r="276" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B276" s="4"/>
+      <c r="AL276" s="5"/>
+    </row>
+    <row r="277" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B277" s="4"/>
+      <c r="AL277" s="5"/>
+    </row>
+    <row r="278" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B278" s="4"/>
+      <c r="AL278" s="5"/>
+    </row>
+    <row r="279" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B279" s="4"/>
+      <c r="AL279" s="5"/>
+    </row>
+    <row r="280" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B280" s="4"/>
+      <c r="AL280" s="5"/>
+    </row>
+    <row r="281" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B281" s="4"/>
+      <c r="AL281" s="5"/>
+    </row>
+    <row r="282" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B282" s="4"/>
+      <c r="AL282" s="5"/>
+    </row>
+    <row r="283" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B283" s="4"/>
+      <c r="AL283" s="5"/>
+    </row>
+    <row r="284" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B284" s="4"/>
+      <c r="AL284" s="5"/>
+    </row>
+    <row r="285" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B285" s="4"/>
+      <c r="AL285" s="5"/>
+    </row>
+    <row r="286" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B286" s="4"/>
+      <c r="AL286" s="5"/>
+    </row>
+    <row r="287" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B287" s="4"/>
+      <c r="AL287" s="5"/>
+    </row>
+    <row r="288" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B288" s="4"/>
+      <c r="AL288" s="5"/>
+    </row>
+    <row r="289" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B289" s="4"/>
+      <c r="AL289" s="5"/>
+    </row>
+    <row r="290" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B290" s="4"/>
+      <c r="AL290" s="5"/>
+    </row>
+    <row r="291" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B291" s="4"/>
+      <c r="AL291" s="5"/>
+    </row>
+    <row r="292" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B292" s="4"/>
+      <c r="AL292" s="5"/>
+    </row>
+    <row r="293" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B293" s="4"/>
+      <c r="AL293" s="5"/>
+    </row>
+    <row r="294" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B294" s="4"/>
+      <c r="AL294" s="5"/>
+    </row>
+    <row r="295" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B295" s="4"/>
+      <c r="AL295" s="5"/>
+    </row>
+    <row r="296" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B296" s="4"/>
+      <c r="AL296" s="5"/>
+    </row>
+    <row r="297" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B297" s="4"/>
+      <c r="AL297" s="5"/>
+    </row>
+    <row r="298" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B298" s="4"/>
+      <c r="AL298" s="5"/>
+    </row>
+    <row r="299" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B299" s="4"/>
+      <c r="AL299" s="5"/>
+    </row>
+    <row r="300" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B300" s="4"/>
+      <c r="AL300" s="5"/>
+    </row>
+    <row r="301" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B301" s="4"/>
+      <c r="AL301" s="5"/>
+    </row>
+    <row r="302" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B302" s="4"/>
+      <c r="AL302" s="5"/>
+    </row>
+    <row r="303" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B303" s="4"/>
+      <c r="AL303" s="5"/>
+    </row>
+    <row r="304" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B304" s="4"/>
+      <c r="AL304" s="5"/>
+    </row>
+    <row r="305" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B305" s="4"/>
+      <c r="AL305" s="5"/>
+    </row>
+    <row r="306" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B306" s="4"/>
+      <c r="AL306" s="5"/>
+    </row>
+    <row r="307" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B307" s="4"/>
+      <c r="AL307" s="5"/>
+    </row>
+    <row r="308" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B308" s="4"/>
+      <c r="AL308" s="5"/>
+    </row>
+    <row r="309" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B309" s="4"/>
+      <c r="AL309" s="5"/>
+    </row>
+    <row r="310" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B310" s="4"/>
+      <c r="AL310" s="5"/>
+    </row>
+    <row r="311" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B311" s="4"/>
+      <c r="AL311" s="5"/>
+    </row>
+    <row r="312" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B312" s="4"/>
+      <c r="AL312" s="5"/>
+    </row>
+    <row r="313" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B313" s="4"/>
+      <c r="AL313" s="5"/>
+    </row>
+    <row r="314" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B314" s="4"/>
+      <c r="AL314" s="5"/>
+    </row>
+    <row r="315" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B315" s="4"/>
+      <c r="AL315" s="5"/>
+    </row>
+    <row r="316" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B316" s="4"/>
+      <c r="AL316" s="5"/>
+    </row>
+    <row r="317" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B317" s="4"/>
+      <c r="AL317" s="5"/>
+    </row>
+    <row r="318" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B318" s="4"/>
+      <c r="AL318" s="5"/>
+    </row>
+    <row r="319" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B319" s="4"/>
+      <c r="AL319" s="5"/>
+    </row>
+    <row r="320" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B320" s="4"/>
+      <c r="AL320" s="5"/>
+    </row>
+    <row r="321" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B321" s="4"/>
+      <c r="AL321" s="5"/>
+    </row>
+    <row r="322" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B322" s="4"/>
+      <c r="AL322" s="5"/>
+    </row>
+    <row r="323" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B323" s="4"/>
+      <c r="AL323" s="5"/>
+    </row>
+    <row r="324" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B324" s="4"/>
+      <c r="AL324" s="5"/>
+    </row>
+    <row r="325" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B325" s="4"/>
+      <c r="AL325" s="5"/>
+    </row>
+    <row r="326" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B326" s="4"/>
+      <c r="AL326" s="5"/>
+    </row>
+    <row r="327" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B327" s="4"/>
+      <c r="AL327" s="5"/>
+    </row>
+    <row r="328" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B328" s="4"/>
+      <c r="AL328" s="5"/>
+    </row>
+    <row r="329" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B329" s="4"/>
+      <c r="AL329" s="5"/>
+    </row>
+    <row r="330" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B330" s="4"/>
+      <c r="AL330" s="5"/>
+    </row>
+    <row r="331" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B331" s="4"/>
+      <c r="AL331" s="5"/>
+    </row>
+    <row r="332" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B332" s="4"/>
+      <c r="AL332" s="5"/>
+    </row>
+    <row r="333" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B333" s="4"/>
+      <c r="AL333" s="5"/>
+    </row>
+    <row r="334" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B334" s="4"/>
+      <c r="AL334" s="5"/>
+    </row>
+    <row r="335" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B335" s="4"/>
+      <c r="AL335" s="5"/>
+    </row>
+    <row r="336" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B336" s="4"/>
+      <c r="AL336" s="5"/>
+    </row>
+    <row r="337" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B337" s="4"/>
+      <c r="AL337" s="5"/>
+    </row>
+    <row r="338" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B338" s="4"/>
+      <c r="AL338" s="5"/>
+    </row>
+    <row r="339" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B339" s="4"/>
+      <c r="AL339" s="5"/>
+    </row>
+    <row r="340" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B340" s="4"/>
+      <c r="AL340" s="5"/>
+    </row>
+    <row r="341" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B341" s="4"/>
+      <c r="AL341" s="5"/>
+    </row>
+    <row r="342" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B342" s="4"/>
+      <c r="AL342" s="5"/>
+    </row>
+    <row r="343" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B343" s="4"/>
+      <c r="AL343" s="5"/>
+    </row>
+    <row r="344" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B344" s="4"/>
+      <c r="AL344" s="5"/>
+    </row>
+    <row r="345" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B345" s="4"/>
+      <c r="AL345" s="5"/>
+    </row>
+    <row r="346" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B346" s="4"/>
+      <c r="AL346" s="5"/>
+    </row>
+    <row r="347" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B347" s="4"/>
+      <c r="AL347" s="5"/>
+    </row>
+    <row r="348" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B348" s="4"/>
+      <c r="AL348" s="5"/>
+    </row>
+    <row r="349" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B349" s="4"/>
+      <c r="AL349" s="5"/>
+    </row>
+    <row r="350" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B350" s="4"/>
+      <c r="AL350" s="5"/>
+    </row>
+    <row r="351" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B351" s="4"/>
+      <c r="AL351" s="5"/>
+    </row>
+    <row r="352" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B352" s="4"/>
+      <c r="AL352" s="5"/>
+    </row>
+    <row r="353" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B353" s="4"/>
+      <c r="AL353" s="5"/>
+    </row>
+    <row r="354" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B354" s="4"/>
+      <c r="AL354" s="5"/>
+    </row>
+    <row r="355" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B355" s="4"/>
+      <c r="AL355" s="5"/>
+    </row>
+    <row r="356" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B356" s="4"/>
+      <c r="AL356" s="5"/>
+    </row>
+    <row r="357" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B357" s="4"/>
+      <c r="AL357" s="5"/>
+    </row>
+    <row r="358" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B358" s="4"/>
+      <c r="AL358" s="5"/>
+    </row>
+    <row r="359" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B359" s="6"/>
+      <c r="C359" s="7"/>
+      <c r="D359" s="7"/>
+      <c r="E359" s="7"/>
+      <c r="F359" s="7"/>
+      <c r="G359" s="7"/>
+      <c r="H359" s="7"/>
+      <c r="I359" s="7"/>
+      <c r="J359" s="7"/>
+      <c r="K359" s="7"/>
+      <c r="L359" s="7"/>
+      <c r="M359" s="7"/>
+      <c r="N359" s="7"/>
+      <c r="O359" s="7"/>
+      <c r="P359" s="7"/>
+      <c r="Q359" s="7"/>
+      <c r="R359" s="7"/>
+      <c r="S359" s="7"/>
+      <c r="T359" s="7"/>
+      <c r="U359" s="7"/>
+      <c r="V359" s="7"/>
+      <c r="W359" s="7"/>
+      <c r="X359" s="7"/>
+      <c r="Y359" s="7"/>
+      <c r="Z359" s="7"/>
+      <c r="AA359" s="7"/>
+      <c r="AB359" s="7"/>
+      <c r="AC359" s="7"/>
+      <c r="AD359" s="7"/>
+      <c r="AE359" s="7"/>
+      <c r="AF359" s="7"/>
+      <c r="AG359" s="7"/>
+      <c r="AH359" s="7"/>
+      <c r="AI359" s="7"/>
+      <c r="AJ359" s="7"/>
+      <c r="AK359" s="7"/>
+      <c r="AL359" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
